--- a/biology/Zoologie/Héron_strié/Héron_strié.xlsx
+++ b/biology/Zoologie/Héron_strié/Héron_strié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_stri%C3%A9</t>
+          <t>Héron_strié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butorides striata
 Le Héron strié (Butorides striata) est une espèce d'oiseaux appartenant à la famille des Ardeidae. Il peuple les régions tropicales d'Amérique, d'Afrique, d'Asie et d'Océanie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_stri%C3%A9</t>
+          <t>Héron_strié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Héron strié est un oiseau de taille modeste au sein de sa famille. Il mesure de 40 à 48 cm de longueur pour une envergure de 60 à 70 cm[1] et pèse de 125 à 225 g[2]. La coloration de la tête et du cou ainsi que la taille varient selon les sous-espèces. Il existe un dimorphisme entre le juvénile et l'adulte. Notons au moins que le juvénile a une coloration bien plus mouchetée, tachetée, moins unie, et plus brunâtre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Héron strié est un oiseau de taille modeste au sein de sa famille. Il mesure de 40 à 48 cm de longueur pour une envergure de 60 à 70 cm et pèse de 125 à 225 g. La coloration de la tête et du cou ainsi que la taille varient selon les sous-espèces. Il existe un dimorphisme entre le juvénile et l'adulte. Notons au moins que le juvénile a une coloration bien plus mouchetée, tachetée, moins unie, et plus brunâtre.
 			Tête de héron strié.
 			Un héron strié en chasse dans un étang près de Kuala Lumpur. Juillet 2018
 			Œuf de Butorides striata – Muséum de Toulouse
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_stri%C3%A9</t>
+          <t>Héron_strié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est généralement solitaire et silencieux. Il est actif surtout du crépusculule aux premières heures du jour, mais également en pleine journée en particulier dans les milieux urbanisés. Il vole le plus souvent à basse altitude.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_stri%C3%A9</t>
+          <t>Héron_strié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cet héron est très largement réparti à travers le monde : Afrique, sauf le Nord-Ouest et le centre de la forêt tropicale congolaise, Amérique du Sud, Proche et Moyen Orient, Asie du Sud et même côtes australiennes[1],[3]. Le héron strié est un oiseau des zones boisées et des forêts situées en bordure de l'eau. Son habitat préféré est constitué par les côtes et les estuaires bordés de mangroves[4]. Il apprécie aussi beaucoup les zones de végétation dense quand elles sont situées à proximité de lacs ou de rivières[4].</t>
+Cet héron est très largement réparti à travers le monde : Afrique, sauf le Nord-Ouest et le centre de la forêt tropicale congolaise, Amérique du Sud, Proche et Moyen Orient, Asie du Sud et même côtes australiennes,. Le héron strié est un oiseau des zones boisées et des forêts situées en bordure de l'eau. Son habitat préféré est constitué par les côtes et les estuaires bordés de mangroves. Il apprécie aussi beaucoup les zones de végétation dense quand elles sont situées à proximité de lacs ou de rivières.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_stri%C3%A9</t>
+          <t>Héron_strié</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,10 +628,12 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Héron strié se nourrit de poissons, d'insectes, d'araignées, de reptiles et parfois de souris et d'autres petits mammifères.
-Cet oiseau est l'un des rares oiseaux connus pour jeter un appât dans l'eau afin de pêcher des poissons. Il dépose sur la surface de l'eau une feuille, une baie, un morceau de pain ou un insecte vivant pour attirer les poissons qu'il capture[5]. Il présente ainsi un exemple d’utilisation d'outil par un animal.
+Cet oiseau est l'un des rares oiseaux connus pour jeter un appât dans l'eau afin de pêcher des poissons. Il dépose sur la surface de l'eau une feuille, une baie, un morceau de pain ou un insecte vivant pour attirer les poissons qu'il capture. Il présente ainsi un exemple d’utilisation d'outil par un animal.
 </t>
         </is>
       </c>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_stri%C3%A9</t>
+          <t>Héron_strié</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit par Carl von Linné en 1758 sous le nom de Butorides striata[6]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit par Carl von Linné en 1758 sous le nom de Butorides striata
 </t>
         </is>
       </c>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_stri%C3%A9</t>
+          <t>Héron_strié</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,19 +695,124 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 2021 (11/2021), l'UICN considère l'espèce comme de préoccupation mineure[7].
-Noms vernaculaires
-Il n'est pas impossible que sous ces dénominations coexistent plusieurs espèces différentes.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021 (11/2021), l'UICN considère l'espèce comme de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Héron_strié</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9ron_stri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Statut de conservation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Il n'est pas impossible que sous ces dénominations coexistent plusieurs espèces différentes.
 Héron à dos vert
 Héron strié
-Héron vert
-Synonymie
-Butorides striatus (lapsus)
-Butorides spodiogaster
-Taxinomie
-Sous-espèces
+Héron vert</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Héron_strié</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9ron_stri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Statut de conservation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Butorides striatus (lapsus)
+Butorides spodiogaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Héron_strié</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9ron_stri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Statut de conservation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sous-espèces
 D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des vingt-et-une sous-espèces suivantes (ordre phylogénique) :
 Butorides striata striata (Linnaeus, 1758) ;
 Butorides striata atricapilla (Afzelius, 1804) ;
